--- a/biology/Histoire de la zoologie et de la botanique/Ernest_William_Lyons_Holt/Ernest_William_Lyons_Holt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernest_William_Lyons_Holt/Ernest_William_Lyons_Holt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest William Lyons Holt est un biologiste marin et un ichtyologiste britannique, né le 17 octobre 1864 à Londres et mort le 10 juin 1922 dans cette même ville.
 Ses travaux scientifiques contribuent à la fondation de la gestion de la pêche et, avec William Spotswood Green (1847-1919), il influence durablement les débuts des pêcheries irlandaises.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au collège d'Eton où il gagne un prix en biologie. Après l’école, il s’engage dans l’armée britannique et entre à l’Académie royale militaire de Sandhurst. Après ses années de formation, il est versé dans l’infanterie légère du duc de Cornouailles. Il participe à la campagne du Nil (1884-1887) puis à la troisième guerre birmane (1886-1887). Durant cette campagne, il tombe malade et est renvoyé chez lui comme invalide.
 Revenu à la vie civile, Holt commence à étudier la zoologie à l’université de St Andrews en 1888. Deux ans plus tard, il participe comme assistant-naturaliste à une étude sur les pêches sur la côte ouest de l’Irlande, organisée par la Royal Society de Dublin. Cette expédition est conduite par William Spotswood Green, avec qui il travaillera l’essentiel de sa vie. Cette recherche établit la réputation de Holt comme ichtyologiste : il publie non seulement plusieurs articles sur les œufs et les premiers stades de croissance des poissons mais rédige aussi le compte rendu de l’expédition. À la suite des travaux de Green et de Holt, en 1892, le gouvernement initie un programme de recherche sur les pêches sous la direction du Congested Districts Board for Ireland. Green devient inspecteur en chef des pêches, tandis que Holt est conseiller scientifique bien qu’il quitte l’Irlande durant quelques années.
